--- a/data/trans_bre/P8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P8_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>3,24</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>19,36%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>28,55%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26,59%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38,78%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>34,03%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 4,54</t>
+          <t>-1,45; 4,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,38</t>
+          <t>-0,82; 5,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 5,06</t>
+          <t>-1,08; 4,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 5,05</t>
+          <t>-0,98; 5,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 7,5</t>
+          <t>-0,67; 6,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 69,55</t>
+          <t>-0,33; 7,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 86,88</t>
+          <t>-3,58; 3,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 90,14</t>
+          <t>-16,17; 70,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 77,68</t>
+          <t>-10,4; 87,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 94,2</t>
+          <t>-12,15; 83,6</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,21; 74,8</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 107,81</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 92,05</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-27,77; 34,23</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,93</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,33%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-22,46%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-10,89%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>45,7%</t>
+          <t>-23,18%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-10,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,53%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>45,68%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 3,73</t>
+          <t>-2,86; 3,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,83</t>
+          <t>-3,76; 3,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 1,3</t>
+          <t>-5,89; 1,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 2,78</t>
+          <t>-4,06; 2,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 10,21</t>
+          <t>-3,55; 5,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 73,8</t>
+          <t>-2,14; 10,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 74,97</t>
+          <t>-5,33; 6,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,04; 19,41</t>
+          <t>-35,67; 70,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 45,01</t>
+          <t>-37,52; 62,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 232,59</t>
+          <t>-50,91; 20,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-40,45; 38,88</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-31,62; 71,37</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-32,24; 218,89</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-38,27; 77,29</t>
         </is>
       </c>
     </row>
@@ -881,45 +993,65 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-52,39%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-53,14%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-43,8%</t>
+          <t>-52,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-22,83%</t>
+          <t>-50,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-41,71%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-21,34%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-12,98%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 0,87</t>
+          <t>-9,78; 0,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 1,42</t>
+          <t>-8,72; 1,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 1,77</t>
+          <t>-9,72; 1,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 4,47</t>
+          <t>-7,94; 4,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-9,79; 8,61</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-86,85; 29,5</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-91,65; 52,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-80,92; 40,44</t>
+          <t>-84,04; 44,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-66,75; 72,43</t>
+          <t>-89,14; 62,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-75,72; 32,64</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-62,75; 75,11</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-69,85; 135,55</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>5,13%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,77%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-2,11%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>-3,2%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,23%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>36,96%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-0,88%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,47</t>
+          <t>-1,78; 2,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,93</t>
+          <t>-1,49; 2,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,94</t>
+          <t>-2,63; 1,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,78</t>
+          <t>-1,73; 2,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,55</t>
+          <t>-1,04; 4,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 40,06</t>
+          <t>-0,02; 6,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 43,71</t>
+          <t>-3,17; 2,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 26,79</t>
+          <t>-19,78; 39,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 38,66</t>
+          <t>-16,81; 48,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 85,55</t>
+          <t>-26,29; 26,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,58; 35,75</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; 58,12</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 83,73</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-24,66; 27,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P8_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,24</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>19,35%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>27,66%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>28,55%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>26,59%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>38,78%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>34,03%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>-1,1%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.577522763024705</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.580217273669134</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.965545564490337</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.065906943350448</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.855797825004037</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3.244412289408374</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1679259332845046</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1935292525727585</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1992718741679267</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.2646455731350761</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.2429285586311347</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.3430424984917206</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.3402862009984757</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>-0.01445924787985923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 4,62</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 5,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 4,83</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 5,32</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 6,95</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 7,31</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-3,58; 3,36</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-16,17; 70,82</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-10,4; 87,85</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-12,15; 83,6</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-10,21; 74,8</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-7,21; 107,81</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 92,05</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-27,77; 34,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.446193128963843</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.375107596809807</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.228634922992231</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.277494639833301</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.8402549867007348</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3279444307418258</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-3.625382924821379</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1616507084878676</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1506018706707893</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1412238126409698</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.1270066203140092</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.09136516458925668</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.03531961189877082</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.2793244876808215</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.615586178061121</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.054696971527462</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.872514236228829</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.200013332477338</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>6.713404580240512</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>7.313613624775525</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>3.319479903849555</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.7082323470377666</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.8185025456792466</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.8241588481008134</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.698176417831377</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.010319211518</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.9205299606289751</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.342410695040997</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,88</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,36%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-23,18%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-10,45%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>9,53%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>45,68%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-0,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 3,47</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 3,54</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,89; 1,25</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 2,41</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 5,11</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 10,11</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; 6,25</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-35,67; 70,59</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-37,52; 62,83</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-50,91; 20,23</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-40,45; 38,88</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-31,62; 71,37</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-32,24; 218,89</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-38,27; 77,29</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1521485338953188</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2283336682241427</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.301056341279851</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.291763237697805</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.5716768354993074</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2.92800391420116</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1913518423907454</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.02357974144328501</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.02944549861995957</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.2462387364251697</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.1489161880860594</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.06276253419872811</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.4568133933802445</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>-0.01651139251410774</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,21</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,31</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,09</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-52,41%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-50,85%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-41,71%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-21,34%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-12,98%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.856827971626301</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.274651808149469</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.135026595568871</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.546127449200704</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.012562422694089</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-2.140149253928372</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-5.540613490206098</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3566941472676803</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4118913763148979</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.5207725010203909</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.4357822832747396</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.3391758776178317</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.3224009528641304</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.3938600706472029</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,78; 0,98</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 1,6</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,72; 1,56</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 4,36</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,79; 8,61</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-84,04; 44,52</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-89,14; 62,02</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-75,72; 32,64</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-62,75; 75,11</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-69,85; 135,55</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.473938532133806</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.436619765722817</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.077648027986116</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.055922290479077</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>4.864459866819322</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>10.10728264259432</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>6.185191879345992</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7059062061286919</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.6294520863717337</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1650670381383432</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.3212821327176131</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.6815639477773869</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>2.188946938643271</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.7579590465120988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,25</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>9,94%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-3,2%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,15%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>19,23%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>36,96%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>-0,88%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-4.207610054713178</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.862857062320873</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.197314646420778</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.11120413624618</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-1.557522839758285</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>-0.5240620612453305</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.4845110417970199</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4296642072291734</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>-0.213268355285872</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-0.1368060573317121</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 2,48</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 2,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 1,85</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 2,64</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 4,42</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 6,55</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 2,79</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-19,78; 39,14</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-16,81; 48,72</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-26,29; 26,2</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-17,58; 35,75</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; 58,12</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 83,73</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-24,66; 27,54</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.78241213860019</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.128760112413957</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.176585457065</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.241637284246664</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-9.912798912858742</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.8404189442099612</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.8894928211201754</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7645722517447352</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.6276675870012612</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.7097168544645571</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.9769825409853805</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.508996244102936</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.324730680928774</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.261242682025577</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>8.670985679497255</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.4451821033775874</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.6709133161871305</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2509207485335755</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.6879010803420511</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1.337390904889399</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.3827243838615227</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3966414932188939</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.41715427367853</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2884486409481954</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.438177622243302</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>3.247715163244266</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.172527480624414</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.05134882634273946</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.05210554947937245</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.04918179596570806</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.03299058581232758</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.1596170202328938</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.3695807569487741</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>-0.01486307648300298</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.784322320276863</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.842080314224206</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.666518529605616</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.076104275636824</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.362649143517833</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.02369856003745618</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-3.26242921244526</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1978470215811004</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2154668880690655</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2677480658361072</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.2036073766453695</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1294965645803433</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.007476483019589225</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.2502621828557379</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.484748721376774</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.798799494644002</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.844028658490506</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.446691450889551</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.131321640486619</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>6.552639529196751</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2.685824743073695</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3913529557019747</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4406778229040416</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2528301441319116</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.3283301932335428</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.5387088578080033</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.8372641691391128</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.2684893053811268</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
